--- a/Test_Plan/Loaded_TEST_PLAN_template.xlsx
+++ b/Test_Plan/Loaded_TEST_PLAN_template.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\Automation-Framework\Test_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A8A7C-817B-46D1-A2AE-F201B5DC16B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E742B-7B6F-4AF9-BD98-EA15D71F45E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>script6</t>
   </si>
   <si>
-    <t>carl.chen@hp.com</t>
+    <t>carl.chen@hp.com;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
